--- a/SRC协议V1.1_20200726.xlsx
+++ b/SRC协议V1.1_20200726.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TianYuan/Documents/Project/SRC/SRCServer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TianYuan/Documents/Project/SRC/SRCClientESP8266/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EF1B75-1956-D946-AAD6-297B60C99DB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDC5F5F-C5B3-674C-9225-1CEC57D14F7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据类型" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="208">
   <si>
     <t>起始字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -868,10 +868,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>32个字节的认证内容，比如：627460345c74ffa8d078c98b541fb0xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0X7D</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -881,6 +877,10 @@
   </si>
   <si>
     <t>设备主动断开与服务器的长连接；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32个字节的认证内容，比如：627460345c74ffa8d078c98b541fb0xx，字符串转ASCII请见https://www.bejson.com/convert/ox2str/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1217,7 +1217,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1403,6 +1403,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1449,28 +1455,46 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1478,32 +1502,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -1888,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2027FF2-E594-E740-89AF-250A0BFCC045}">
   <dimension ref="A1:AM57"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:W13"/>
+    <sheetView topLeftCell="A30" zoomScale="83" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1918,18 +1927,18 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
     </row>
     <row r="3" spans="1:38" s="16" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="95"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="36">
         <v>1</v>
       </c>
@@ -2035,7 +2044,7 @@
       <c r="AL3" s="11"/>
     </row>
     <row r="4" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="95"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="33" t="s">
         <v>58</v>
       </c>
@@ -2137,11 +2146,11 @@
       </c>
     </row>
     <row r="5" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="95"/>
-      <c r="B5" s="89" t="s">
+      <c r="A5" s="93"/>
+      <c r="B5" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="79"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="90" t="s">
         <v>6</v>
       </c>
@@ -2149,127 +2158,127 @@
       <c r="F5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="79" t="s">
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Y5" s="79" t="s">
+      <c r="Y5" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="Z5" s="79"/>
-      <c r="AA5" s="79" t="s">
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="79"/>
-      <c r="AD5" s="79"/>
-      <c r="AE5" s="79"/>
-      <c r="AF5" s="79"/>
-      <c r="AG5" s="83" t="s">
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="AH5" s="79" t="s">
+      <c r="AH5" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="92" t="s">
+      <c r="A6" s="93"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="93"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="84"/>
-      <c r="AH6" s="79"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="92"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="80"/>
     </row>
     <row r="7" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="95"/>
-      <c r="B7" s="85" t="s">
+      <c r="A7" s="93"/>
+      <c r="B7" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="86" t="s">
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="87"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="87"/>
-      <c r="AF7" s="87"/>
-      <c r="AG7" s="87"/>
-      <c r="AH7" s="85"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="95"/>
+      <c r="W7" s="95"/>
+      <c r="X7" s="95"/>
+      <c r="Y7" s="95"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="95"/>
+      <c r="AB7" s="95"/>
+      <c r="AC7" s="95"/>
+      <c r="AD7" s="95"/>
+      <c r="AE7" s="95"/>
+      <c r="AF7" s="95"/>
+      <c r="AG7" s="95"/>
+      <c r="AH7" s="87"/>
     </row>
     <row r="8" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="95"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
@@ -2309,16 +2318,16 @@
       <c r="AL8" s="34"/>
     </row>
     <row r="9" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="95"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
     </row>
     <row r="10" spans="1:38" s="16" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="95"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="36">
         <v>1</v>
       </c>
@@ -2432,7 +2441,7 @@
       </c>
     </row>
     <row r="11" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="95"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="33" t="s">
         <v>58</v>
       </c>
@@ -2546,11 +2555,11 @@
       </c>
     </row>
     <row r="12" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="95"/>
-      <c r="B12" s="89" t="s">
+      <c r="A12" s="93"/>
+      <c r="B12" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="79"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="90" t="s">
         <v>6</v>
       </c>
@@ -2558,144 +2567,144 @@
       <c r="F12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="82" t="s">
+      <c r="G12" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="79" t="s">
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="92"/>
+      <c r="W12" s="92"/>
+      <c r="X12" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Y12" s="79" t="s">
+      <c r="Y12" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79" t="s">
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AD12" s="79"/>
-      <c r="AE12" s="79"/>
-      <c r="AF12" s="79"/>
-      <c r="AG12" s="83" t="s">
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="80"/>
+      <c r="AD12" s="80"/>
+      <c r="AE12" s="80"/>
+      <c r="AF12" s="80"/>
+      <c r="AG12" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="AH12" s="79" t="s">
+      <c r="AH12" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="AI12" s="79" t="s">
+      <c r="AI12" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="AJ12" s="79" t="s">
+      <c r="AJ12" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="AK12" s="79" t="s">
+      <c r="AK12" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="AL12" s="79" t="s">
+      <c r="AL12" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="95"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="92" t="s">
+      <c r="A13" s="93"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="93"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="79"/>
-      <c r="Z13" s="79"/>
-      <c r="AA13" s="79"/>
-      <c r="AB13" s="79"/>
-      <c r="AC13" s="79"/>
-      <c r="AD13" s="79"/>
-      <c r="AE13" s="79"/>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="79"/>
-      <c r="AI13" s="79"/>
-      <c r="AJ13" s="79"/>
-      <c r="AK13" s="79"/>
-      <c r="AL13" s="79"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="80"/>
+      <c r="AB13" s="80"/>
+      <c r="AC13" s="80"/>
+      <c r="AD13" s="80"/>
+      <c r="AE13" s="80"/>
+      <c r="AF13" s="80"/>
+      <c r="AG13" s="82"/>
+      <c r="AH13" s="80"/>
+      <c r="AI13" s="80"/>
+      <c r="AJ13" s="80"/>
+      <c r="AK13" s="80"/>
+      <c r="AL13" s="80"/>
     </row>
     <row r="14" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="95"/>
-      <c r="B14" s="85" t="s">
+      <c r="A14" s="93"/>
+      <c r="B14" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78" t="s">
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
-      <c r="W14" s="78"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="78"/>
-      <c r="AC14" s="78"/>
-      <c r="AD14" s="78"/>
-      <c r="AE14" s="78"/>
-      <c r="AF14" s="78"/>
-      <c r="AG14" s="78"/>
-      <c r="AH14" s="78"/>
-      <c r="AI14" s="78"/>
-      <c r="AJ14" s="78"/>
-      <c r="AK14" s="78"/>
-      <c r="AL14" s="78"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
+      <c r="Q14" s="85"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="85"/>
+      <c r="T14" s="85"/>
+      <c r="U14" s="85"/>
+      <c r="V14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="85"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="85"/>
+      <c r="AC14" s="85"/>
+      <c r="AD14" s="85"/>
+      <c r="AE14" s="85"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="85"/>
+      <c r="AH14" s="85"/>
+      <c r="AI14" s="85"/>
+      <c r="AJ14" s="85"/>
+      <c r="AK14" s="85"/>
+      <c r="AL14" s="85"/>
     </row>
     <row r="15" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
@@ -2738,18 +2747,18 @@
       <c r="AL15" s="34"/>
     </row>
     <row r="16" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
     </row>
     <row r="17" spans="1:39" s="16" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="95"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="36">
         <v>1</v>
       </c>
@@ -2859,7 +2868,7 @@
       <c r="AL17" s="11"/>
     </row>
     <row r="18" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="95"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="33" t="s">
         <v>58</v>
       </c>
@@ -2967,11 +2976,11 @@
       </c>
     </row>
     <row r="19" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="95"/>
-      <c r="B19" s="89" t="s">
+      <c r="A19" s="93"/>
+      <c r="B19" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="79"/>
+      <c r="C19" s="80"/>
       <c r="D19" s="90" t="s">
         <v>6</v>
       </c>
@@ -2979,149 +2988,149 @@
       <c r="F19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="82" t="s">
+      <c r="G19" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="82"/>
-      <c r="X19" s="79" t="s">
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Y19" s="79" t="s">
+      <c r="Y19" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="Z19" s="79"/>
-      <c r="AA19" s="79" t="s">
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="79"/>
-      <c r="AD19" s="79"/>
-      <c r="AE19" s="79"/>
-      <c r="AF19" s="79"/>
-      <c r="AG19" s="83" t="s">
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="80"/>
+      <c r="AD19" s="80"/>
+      <c r="AE19" s="80"/>
+      <c r="AF19" s="80"/>
+      <c r="AG19" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="AH19" s="83" t="s">
+      <c r="AH19" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="AI19" s="79" t="s">
+      <c r="AI19" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="AJ19" s="79" t="s">
+      <c r="AJ19" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="95"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="92" t="s">
+      <c r="A20" s="93"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="93"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="79"/>
-      <c r="AF20" s="79"/>
-      <c r="AG20" s="84"/>
-      <c r="AH20" s="84"/>
-      <c r="AI20" s="79"/>
-      <c r="AJ20" s="79"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="92"/>
+      <c r="S20" s="92"/>
+      <c r="T20" s="92"/>
+      <c r="U20" s="92"/>
+      <c r="V20" s="92"/>
+      <c r="W20" s="92"/>
+      <c r="X20" s="80"/>
+      <c r="Y20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="80"/>
+      <c r="AF20" s="80"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="82"/>
+      <c r="AI20" s="80"/>
+      <c r="AJ20" s="80"/>
     </row>
     <row r="21" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95"/>
-      <c r="B21" s="85" t="s">
+      <c r="A21" s="93"/>
+      <c r="B21" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="86" t="s">
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="87"/>
-      <c r="AC21" s="87"/>
-      <c r="AD21" s="87"/>
-      <c r="AE21" s="87"/>
-      <c r="AF21" s="87"/>
-      <c r="AG21" s="87"/>
-      <c r="AH21" s="87"/>
-      <c r="AI21" s="87"/>
-      <c r="AJ21" s="85"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="95"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="95"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="95"/>
+      <c r="AJ21" s="87"/>
     </row>
     <row r="22" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="95"/>
+      <c r="A22" s="93"/>
     </row>
     <row r="23" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="95"/>
+      <c r="A23" s="93"/>
       <c r="B23" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
     </row>
     <row r="24" spans="1:39" s="16" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="95"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="36">
         <v>1</v>
       </c>
@@ -3231,7 +3240,7 @@
       <c r="AL24" s="11"/>
     </row>
     <row r="25" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="95"/>
+      <c r="A25" s="93"/>
       <c r="B25" s="33" t="s">
         <v>58</v>
       </c>
@@ -3339,11 +3348,11 @@
       </c>
     </row>
     <row r="26" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="95"/>
-      <c r="B26" s="89" t="s">
+      <c r="A26" s="93"/>
+      <c r="B26" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="79"/>
+      <c r="C26" s="80"/>
       <c r="D26" s="90" t="s">
         <v>6</v>
       </c>
@@ -3351,182 +3360,182 @@
       <c r="F26" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="82" t="s">
+      <c r="G26" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="82"/>
-      <c r="W26" s="82"/>
-      <c r="X26" s="79" t="s">
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="92"/>
+      <c r="U26" s="92"/>
+      <c r="V26" s="92"/>
+      <c r="W26" s="92"/>
+      <c r="X26" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Y26" s="79" t="s">
+      <c r="Y26" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="79" t="s">
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AB26" s="79"/>
-      <c r="AC26" s="79"/>
-      <c r="AD26" s="79"/>
-      <c r="AE26" s="79"/>
-      <c r="AF26" s="79"/>
-      <c r="AG26" s="83" t="s">
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="80"/>
+      <c r="AD26" s="80"/>
+      <c r="AE26" s="80"/>
+      <c r="AF26" s="80"/>
+      <c r="AG26" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="AH26" s="83" t="s">
+      <c r="AH26" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="AI26" s="79" t="s">
+      <c r="AI26" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="AJ26" s="79" t="s">
+      <c r="AJ26" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="95"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="92" t="s">
+      <c r="A27" s="93"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="93"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="82"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="84"/>
-      <c r="AH27" s="84"/>
-      <c r="AI27" s="79"/>
-      <c r="AJ27" s="79"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="80"/>
+      <c r="AB27" s="80"/>
+      <c r="AC27" s="80"/>
+      <c r="AD27" s="80"/>
+      <c r="AE27" s="80"/>
+      <c r="AF27" s="80"/>
+      <c r="AG27" s="82"/>
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="80"/>
+      <c r="AJ27" s="80"/>
     </row>
     <row r="28" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="95"/>
-      <c r="B28" s="85" t="s">
+      <c r="A28" s="93"/>
+      <c r="B28" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="86" t="s">
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="87"/>
-      <c r="W28" s="87"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="87"/>
-      <c r="AA28" s="87"/>
-      <c r="AB28" s="87"/>
-      <c r="AC28" s="87"/>
-      <c r="AD28" s="87"/>
-      <c r="AE28" s="87"/>
-      <c r="AF28" s="87"/>
-      <c r="AG28" s="87"/>
-      <c r="AH28" s="87"/>
-      <c r="AI28" s="87"/>
-      <c r="AJ28" s="85"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="95"/>
+      <c r="AF28" s="95"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="95"/>
+      <c r="AJ28" s="87"/>
     </row>
     <row r="30" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="93" t="s">
         <v>137</v>
       </c>
       <c r="B30" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="78"/>
-      <c r="AC30" s="78"/>
-      <c r="AD30" s="78"/>
-      <c r="AE30" s="78"/>
-      <c r="AF30" s="78"/>
-      <c r="AG30" s="78"/>
-      <c r="AH30" s="78"/>
-      <c r="AI30" s="78"/>
-      <c r="AJ30" s="78"/>
-      <c r="AK30" s="78"/>
-      <c r="AL30" s="78"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="85"/>
+      <c r="V30" s="85"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="85"/>
+      <c r="Y30" s="85"/>
+      <c r="Z30" s="85"/>
+      <c r="AA30" s="85"/>
+      <c r="AB30" s="85"/>
+      <c r="AC30" s="85"/>
+      <c r="AD30" s="85"/>
+      <c r="AE30" s="85"/>
+      <c r="AF30" s="85"/>
+      <c r="AG30" s="85"/>
+      <c r="AH30" s="85"/>
+      <c r="AI30" s="85"/>
+      <c r="AJ30" s="85"/>
+      <c r="AK30" s="85"/>
+      <c r="AL30" s="85"/>
       <c r="AM30" s="35"/>
     </row>
     <row r="31" spans="1:39" s="16" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="95"/>
+      <c r="A31" s="93"/>
       <c r="B31" s="36">
         <v>1</v>
       </c>
@@ -3640,7 +3649,7 @@
       </c>
     </row>
     <row r="32" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="95"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="33" t="s">
         <v>58</v>
       </c>
@@ -3754,11 +3763,11 @@
       </c>
     </row>
     <row r="33" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="95"/>
-      <c r="B33" s="89" t="s">
+      <c r="A33" s="93"/>
+      <c r="B33" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="80"/>
       <c r="D33" s="90" t="s">
         <v>6</v>
       </c>
@@ -3766,133 +3775,133 @@
       <c r="F33" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="82" t="s">
+      <c r="G33" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="82"/>
-      <c r="S33" s="82"/>
-      <c r="T33" s="82"/>
-      <c r="U33" s="82"/>
-      <c r="V33" s="82"/>
-      <c r="W33" s="82"/>
-      <c r="X33" s="79" t="s">
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="92"/>
+      <c r="X33" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Y33" s="79" t="s">
+      <c r="Y33" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="Z33" s="79"/>
-      <c r="AA33" s="79" t="s">
+      <c r="Z33" s="80"/>
+      <c r="AA33" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="79"/>
-      <c r="AD33" s="79"/>
-      <c r="AE33" s="79"/>
-      <c r="AF33" s="79"/>
-      <c r="AG33" s="83" t="s">
+      <c r="AB33" s="80"/>
+      <c r="AC33" s="80"/>
+      <c r="AD33" s="80"/>
+      <c r="AE33" s="80"/>
+      <c r="AF33" s="80"/>
+      <c r="AG33" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="AH33" s="83" t="s">
+      <c r="AH33" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="AI33" s="79" t="s">
+      <c r="AI33" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="AJ33" s="83" t="s">
+      <c r="AJ33" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="AK33" s="79" t="s">
+      <c r="AK33" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="AL33" s="83" t="s">
+      <c r="AL33" s="81" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="95"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="92" t="s">
+      <c r="A34" s="93"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="93"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="82"/>
-      <c r="T34" s="82"/>
-      <c r="U34" s="82"/>
-      <c r="V34" s="82"/>
-      <c r="W34" s="82"/>
-      <c r="X34" s="79"/>
-      <c r="Y34" s="79"/>
-      <c r="Z34" s="79"/>
-      <c r="AA34" s="79"/>
-      <c r="AB34" s="79"/>
-      <c r="AC34" s="79"/>
-      <c r="AD34" s="79"/>
-      <c r="AE34" s="79"/>
-      <c r="AF34" s="79"/>
-      <c r="AG34" s="84"/>
-      <c r="AH34" s="84"/>
-      <c r="AI34" s="79"/>
-      <c r="AJ34" s="84"/>
-      <c r="AK34" s="79"/>
-      <c r="AL34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="92"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="92"/>
+      <c r="Q34" s="92"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="92"/>
+      <c r="T34" s="92"/>
+      <c r="U34" s="92"/>
+      <c r="V34" s="92"/>
+      <c r="W34" s="92"/>
+      <c r="X34" s="80"/>
+      <c r="Y34" s="80"/>
+      <c r="Z34" s="80"/>
+      <c r="AA34" s="80"/>
+      <c r="AB34" s="80"/>
+      <c r="AC34" s="80"/>
+      <c r="AD34" s="80"/>
+      <c r="AE34" s="80"/>
+      <c r="AF34" s="80"/>
+      <c r="AG34" s="82"/>
+      <c r="AH34" s="82"/>
+      <c r="AI34" s="80"/>
+      <c r="AJ34" s="82"/>
+      <c r="AK34" s="80"/>
+      <c r="AL34" s="82"/>
     </row>
     <row r="35" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="95"/>
-      <c r="B35" s="85" t="s">
+      <c r="A35" s="93"/>
+      <c r="B35" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="92" t="s">
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="93"/>
-      <c r="L35" s="93"/>
-      <c r="M35" s="93"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="93"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="93"/>
-      <c r="R35" s="93"/>
-      <c r="S35" s="93"/>
-      <c r="T35" s="93"/>
-      <c r="U35" s="93"/>
-      <c r="V35" s="93"/>
-      <c r="W35" s="93"/>
-      <c r="X35" s="93"/>
-      <c r="Y35" s="93"/>
-      <c r="Z35" s="93"/>
-      <c r="AA35" s="93"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="84"/>
+      <c r="U35" s="84"/>
+      <c r="V35" s="84"/>
+      <c r="W35" s="84"/>
+      <c r="X35" s="84"/>
+      <c r="Y35" s="84"/>
+      <c r="Z35" s="84"/>
+      <c r="AA35" s="84"/>
       <c r="AB35" s="38"/>
       <c r="AC35" s="38"/>
       <c r="AD35" s="38"/>
@@ -3904,7 +3913,7 @@
       <c r="AJ35" s="39"/>
     </row>
     <row r="36" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="95"/>
+      <c r="A36" s="93"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
       <c r="D36" s="40"/>
@@ -3942,51 +3951,51 @@
       <c r="AJ36" s="42"/>
     </row>
     <row r="37" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="95"/>
+      <c r="A37" s="93"/>
       <c r="B37" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="78" t="s">
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
-      <c r="Q37" s="78"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="78"/>
-      <c r="T37" s="78"/>
-      <c r="U37" s="78"/>
-      <c r="V37" s="78"/>
-      <c r="W37" s="78"/>
-      <c r="X37" s="78"/>
-      <c r="Y37" s="78"/>
-      <c r="Z37" s="78"/>
-      <c r="AA37" s="78"/>
-      <c r="AB37" s="78"/>
-      <c r="AC37" s="78"/>
-      <c r="AD37" s="78"/>
-      <c r="AE37" s="78"/>
-      <c r="AF37" s="78"/>
-      <c r="AG37" s="78"/>
-      <c r="AH37" s="78"/>
-      <c r="AI37" s="78"/>
-      <c r="AJ37" s="78"/>
-      <c r="AK37" s="78"/>
-      <c r="AL37" s="78"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="85"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="85"/>
+      <c r="R37" s="85"/>
+      <c r="S37" s="85"/>
+      <c r="T37" s="85"/>
+      <c r="U37" s="85"/>
+      <c r="V37" s="85"/>
+      <c r="W37" s="85"/>
+      <c r="X37" s="85"/>
+      <c r="Y37" s="85"/>
+      <c r="Z37" s="85"/>
+      <c r="AA37" s="85"/>
+      <c r="AB37" s="85"/>
+      <c r="AC37" s="85"/>
+      <c r="AD37" s="85"/>
+      <c r="AE37" s="85"/>
+      <c r="AF37" s="85"/>
+      <c r="AG37" s="85"/>
+      <c r="AH37" s="85"/>
+      <c r="AI37" s="85"/>
+      <c r="AJ37" s="85"/>
+      <c r="AK37" s="85"/>
+      <c r="AL37" s="85"/>
     </row>
     <row r="38" spans="1:39" s="16" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="95"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="36">
         <v>1</v>
       </c>
@@ -4091,7 +4100,7 @@
       <c r="AM38" s="11"/>
     </row>
     <row r="39" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="95"/>
+      <c r="A39" s="93"/>
       <c r="B39" s="33" t="s">
         <v>58</v>
       </c>
@@ -4190,11 +4199,11 @@
       </c>
     </row>
     <row r="40" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="95"/>
-      <c r="B40" s="89" t="s">
+      <c r="A40" s="93"/>
+      <c r="B40" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="79"/>
+      <c r="C40" s="80"/>
       <c r="D40" s="90" t="s">
         <v>6</v>
       </c>
@@ -4202,127 +4211,127 @@
       <c r="F40" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="82" t="s">
+      <c r="G40" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="82"/>
-      <c r="T40" s="82"/>
-      <c r="U40" s="82"/>
-      <c r="V40" s="82"/>
-      <c r="W40" s="82"/>
-      <c r="X40" s="79" t="s">
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="92"/>
+      <c r="M40" s="92"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="92"/>
+      <c r="P40" s="92"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="92"/>
+      <c r="T40" s="92"/>
+      <c r="U40" s="92"/>
+      <c r="V40" s="92"/>
+      <c r="W40" s="92"/>
+      <c r="X40" s="80" t="s">
         <v>68</v>
       </c>
       <c r="Y40" s="96" t="s">
         <v>78</v>
       </c>
       <c r="Z40" s="96"/>
-      <c r="AA40" s="79" t="s">
+      <c r="AA40" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AB40" s="79"/>
-      <c r="AC40" s="79"/>
-      <c r="AD40" s="79"/>
-      <c r="AE40" s="79"/>
-      <c r="AF40" s="79"/>
-      <c r="AG40" s="79" t="s">
+      <c r="AB40" s="80"/>
+      <c r="AC40" s="80"/>
+      <c r="AD40" s="80"/>
+      <c r="AE40" s="80"/>
+      <c r="AF40" s="80"/>
+      <c r="AG40" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="95"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="92" t="s">
+      <c r="A41" s="93"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="93"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="82"/>
-      <c r="R41" s="82"/>
-      <c r="S41" s="82"/>
-      <c r="T41" s="82"/>
-      <c r="U41" s="82"/>
-      <c r="V41" s="82"/>
-      <c r="W41" s="82"/>
-      <c r="X41" s="79"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="92"/>
+      <c r="M41" s="92"/>
+      <c r="N41" s="92"/>
+      <c r="O41" s="92"/>
+      <c r="P41" s="92"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="92"/>
+      <c r="S41" s="92"/>
+      <c r="T41" s="92"/>
+      <c r="U41" s="92"/>
+      <c r="V41" s="92"/>
+      <c r="W41" s="92"/>
+      <c r="X41" s="80"/>
       <c r="Y41" s="96"/>
       <c r="Z41" s="96"/>
-      <c r="AA41" s="79"/>
-      <c r="AB41" s="79"/>
-      <c r="AC41" s="79"/>
-      <c r="AD41" s="79"/>
-      <c r="AE41" s="79"/>
-      <c r="AF41" s="79"/>
-      <c r="AG41" s="79"/>
+      <c r="AA41" s="80"/>
+      <c r="AB41" s="80"/>
+      <c r="AC41" s="80"/>
+      <c r="AD41" s="80"/>
+      <c r="AE41" s="80"/>
+      <c r="AF41" s="80"/>
+      <c r="AG41" s="80"/>
     </row>
     <row r="42" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="95"/>
-      <c r="B42" s="85" t="s">
+      <c r="A42" s="93"/>
+      <c r="B42" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="86" t="s">
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
-      <c r="Q42" s="87"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="87"/>
-      <c r="T42" s="87"/>
-      <c r="U42" s="87"/>
-      <c r="V42" s="87"/>
-      <c r="W42" s="87"/>
-      <c r="X42" s="87"/>
-      <c r="Y42" s="87"/>
-      <c r="Z42" s="87"/>
-      <c r="AA42" s="87"/>
-      <c r="AB42" s="87"/>
-      <c r="AC42" s="87"/>
-      <c r="AD42" s="87"/>
-      <c r="AE42" s="87"/>
-      <c r="AF42" s="87"/>
-      <c r="AG42" s="87"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="95"/>
+      <c r="W42" s="95"/>
+      <c r="X42" s="95"/>
+      <c r="Y42" s="95"/>
+      <c r="Z42" s="95"/>
+      <c r="AA42" s="95"/>
+      <c r="AB42" s="95"/>
+      <c r="AC42" s="95"/>
+      <c r="AD42" s="95"/>
+      <c r="AE42" s="95"/>
+      <c r="AF42" s="95"/>
+      <c r="AG42" s="95"/>
     </row>
     <row r="44" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="80" t="s">
+      <c r="B44" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="89"/>
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
       <c r="H44" s="53"/>
@@ -4556,141 +4565,141 @@
       </c>
     </row>
     <row r="47" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="81" t="s">
+      <c r="C47" s="80"/>
+      <c r="D47" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="81"/>
+      <c r="E47" s="98"/>
       <c r="F47" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="82" t="s">
+      <c r="G47" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="82"/>
-      <c r="R47" s="82"/>
-      <c r="S47" s="82"/>
-      <c r="T47" s="82"/>
-      <c r="U47" s="82"/>
-      <c r="V47" s="82"/>
-      <c r="W47" s="82"/>
-      <c r="X47" s="79" t="s">
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="92"/>
+      <c r="M47" s="92"/>
+      <c r="N47" s="92"/>
+      <c r="O47" s="92"/>
+      <c r="P47" s="92"/>
+      <c r="Q47" s="92"/>
+      <c r="R47" s="92"/>
+      <c r="S47" s="92"/>
+      <c r="T47" s="92"/>
+      <c r="U47" s="92"/>
+      <c r="V47" s="92"/>
+      <c r="W47" s="92"/>
+      <c r="X47" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Y47" s="79" t="s">
+      <c r="Y47" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="Z47" s="79"/>
-      <c r="AA47" s="79" t="s">
+      <c r="Z47" s="80"/>
+      <c r="AA47" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AB47" s="79"/>
-      <c r="AC47" s="79"/>
-      <c r="AD47" s="79"/>
-      <c r="AE47" s="79"/>
-      <c r="AF47" s="79"/>
-      <c r="AG47" s="83" t="s">
+      <c r="AB47" s="80"/>
+      <c r="AC47" s="80"/>
+      <c r="AD47" s="80"/>
+      <c r="AE47" s="80"/>
+      <c r="AF47" s="80"/>
+      <c r="AG47" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="AH47" s="79" t="s">
+      <c r="AH47" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79" t="s">
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="82"/>
-      <c r="R48" s="82"/>
-      <c r="S48" s="82"/>
-      <c r="T48" s="82"/>
-      <c r="U48" s="82"/>
-      <c r="V48" s="82"/>
-      <c r="W48" s="82"/>
-      <c r="X48" s="79"/>
-      <c r="Y48" s="79"/>
-      <c r="Z48" s="79"/>
-      <c r="AA48" s="79"/>
-      <c r="AB48" s="79"/>
-      <c r="AC48" s="79"/>
-      <c r="AD48" s="79"/>
-      <c r="AE48" s="79"/>
-      <c r="AF48" s="79"/>
-      <c r="AG48" s="84"/>
-      <c r="AH48" s="79"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="92"/>
+      <c r="M48" s="92"/>
+      <c r="N48" s="92"/>
+      <c r="O48" s="92"/>
+      <c r="P48" s="92"/>
+      <c r="Q48" s="92"/>
+      <c r="R48" s="92"/>
+      <c r="S48" s="92"/>
+      <c r="T48" s="92"/>
+      <c r="U48" s="92"/>
+      <c r="V48" s="92"/>
+      <c r="W48" s="92"/>
+      <c r="X48" s="80"/>
+      <c r="Y48" s="80"/>
+      <c r="Z48" s="80"/>
+      <c r="AA48" s="80"/>
+      <c r="AB48" s="80"/>
+      <c r="AC48" s="80"/>
+      <c r="AD48" s="80"/>
+      <c r="AE48" s="80"/>
+      <c r="AF48" s="80"/>
+      <c r="AG48" s="82"/>
+      <c r="AH48" s="80"/>
     </row>
     <row r="49" spans="2:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="78" t="s">
+      <c r="B49" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78" t="s">
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="H49" s="78"/>
-      <c r="I49" s="78"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="78"/>
-      <c r="L49" s="78"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
-      <c r="Q49" s="78"/>
-      <c r="R49" s="78"/>
-      <c r="S49" s="78"/>
-      <c r="T49" s="78"/>
-      <c r="U49" s="78"/>
-      <c r="V49" s="78"/>
-      <c r="W49" s="78"/>
-      <c r="X49" s="78"/>
-      <c r="Y49" s="78"/>
-      <c r="Z49" s="78"/>
-      <c r="AA49" s="78"/>
-      <c r="AB49" s="78"/>
-      <c r="AC49" s="78"/>
-      <c r="AD49" s="78"/>
-      <c r="AE49" s="78"/>
-      <c r="AF49" s="78"/>
-      <c r="AG49" s="78"/>
-      <c r="AH49" s="78"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="85"/>
+      <c r="M49" s="85"/>
+      <c r="N49" s="85"/>
+      <c r="O49" s="85"/>
+      <c r="P49" s="85"/>
+      <c r="Q49" s="85"/>
+      <c r="R49" s="85"/>
+      <c r="S49" s="85"/>
+      <c r="T49" s="85"/>
+      <c r="U49" s="85"/>
+      <c r="V49" s="85"/>
+      <c r="W49" s="85"/>
+      <c r="X49" s="85"/>
+      <c r="Y49" s="85"/>
+      <c r="Z49" s="85"/>
+      <c r="AA49" s="85"/>
+      <c r="AB49" s="85"/>
+      <c r="AC49" s="85"/>
+      <c r="AD49" s="85"/>
+      <c r="AE49" s="85"/>
+      <c r="AF49" s="85"/>
+      <c r="AG49" s="85"/>
+      <c r="AH49" s="85"/>
     </row>
     <row r="52" spans="2:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="80" t="s">
+      <c r="B52" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
       <c r="H52" s="53"/>
@@ -4938,163 +4947,219 @@
       </c>
     </row>
     <row r="55" spans="2:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="79" t="s">
+      <c r="B55" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="79"/>
-      <c r="D55" s="81" t="s">
+      <c r="C55" s="80"/>
+      <c r="D55" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="81"/>
+      <c r="E55" s="98"/>
       <c r="F55" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G55" s="82" t="s">
+      <c r="G55" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="H55" s="82"/>
-      <c r="I55" s="82"/>
-      <c r="J55" s="82"/>
-      <c r="K55" s="82"/>
-      <c r="L55" s="82"/>
-      <c r="M55" s="82"/>
-      <c r="N55" s="82"/>
-      <c r="O55" s="82"/>
-      <c r="P55" s="82"/>
-      <c r="Q55" s="82"/>
-      <c r="R55" s="82"/>
-      <c r="S55" s="82"/>
-      <c r="T55" s="82"/>
-      <c r="U55" s="82"/>
-      <c r="V55" s="82"/>
-      <c r="W55" s="82"/>
-      <c r="X55" s="79" t="s">
+      <c r="H55" s="92"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="92"/>
+      <c r="L55" s="92"/>
+      <c r="M55" s="92"/>
+      <c r="N55" s="92"/>
+      <c r="O55" s="92"/>
+      <c r="P55" s="92"/>
+      <c r="Q55" s="92"/>
+      <c r="R55" s="92"/>
+      <c r="S55" s="92"/>
+      <c r="T55" s="92"/>
+      <c r="U55" s="92"/>
+      <c r="V55" s="92"/>
+      <c r="W55" s="92"/>
+      <c r="X55" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Y55" s="79" t="s">
+      <c r="Y55" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="Z55" s="79"/>
-      <c r="AA55" s="79" t="s">
+      <c r="Z55" s="80"/>
+      <c r="AA55" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AB55" s="79"/>
-      <c r="AC55" s="79"/>
-      <c r="AD55" s="79"/>
-      <c r="AE55" s="79"/>
-      <c r="AF55" s="79"/>
-      <c r="AG55" s="83" t="s">
+      <c r="AB55" s="80"/>
+      <c r="AC55" s="80"/>
+      <c r="AD55" s="80"/>
+      <c r="AE55" s="80"/>
+      <c r="AF55" s="80"/>
+      <c r="AG55" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="AH55" s="83" t="s">
+      <c r="AH55" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="AI55" s="79" t="s">
+      <c r="AI55" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="AJ55" s="79" t="s">
+      <c r="AJ55" s="80" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="56" spans="2:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79" t="s">
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="82"/>
-      <c r="J56" s="82"/>
-      <c r="K56" s="82"/>
-      <c r="L56" s="82"/>
-      <c r="M56" s="82"/>
-      <c r="N56" s="82"/>
-      <c r="O56" s="82"/>
-      <c r="P56" s="82"/>
-      <c r="Q56" s="82"/>
-      <c r="R56" s="82"/>
-      <c r="S56" s="82"/>
-      <c r="T56" s="82"/>
-      <c r="U56" s="82"/>
-      <c r="V56" s="82"/>
-      <c r="W56" s="82"/>
-      <c r="X56" s="79"/>
-      <c r="Y56" s="79"/>
-      <c r="Z56" s="79"/>
-      <c r="AA56" s="79"/>
-      <c r="AB56" s="79"/>
-      <c r="AC56" s="79"/>
-      <c r="AD56" s="79"/>
-      <c r="AE56" s="79"/>
-      <c r="AF56" s="79"/>
-      <c r="AG56" s="84"/>
-      <c r="AH56" s="84"/>
-      <c r="AI56" s="79"/>
-      <c r="AJ56" s="79"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="92"/>
+      <c r="J56" s="92"/>
+      <c r="K56" s="92"/>
+      <c r="L56" s="92"/>
+      <c r="M56" s="92"/>
+      <c r="N56" s="92"/>
+      <c r="O56" s="92"/>
+      <c r="P56" s="92"/>
+      <c r="Q56" s="92"/>
+      <c r="R56" s="92"/>
+      <c r="S56" s="92"/>
+      <c r="T56" s="92"/>
+      <c r="U56" s="92"/>
+      <c r="V56" s="92"/>
+      <c r="W56" s="92"/>
+      <c r="X56" s="80"/>
+      <c r="Y56" s="80"/>
+      <c r="Z56" s="80"/>
+      <c r="AA56" s="80"/>
+      <c r="AB56" s="80"/>
+      <c r="AC56" s="80"/>
+      <c r="AD56" s="80"/>
+      <c r="AE56" s="80"/>
+      <c r="AF56" s="80"/>
+      <c r="AG56" s="82"/>
+      <c r="AH56" s="82"/>
+      <c r="AI56" s="80"/>
+      <c r="AJ56" s="80"/>
     </row>
     <row r="57" spans="2:36" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="78" t="s">
+      <c r="B57" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78" t="s">
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="78"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="78"/>
-      <c r="R57" s="78"/>
-      <c r="S57" s="78"/>
-      <c r="T57" s="78"/>
-      <c r="U57" s="78"/>
-      <c r="V57" s="78"/>
-      <c r="W57" s="78"/>
-      <c r="X57" s="78"/>
-      <c r="Y57" s="78"/>
-      <c r="Z57" s="78"/>
-      <c r="AA57" s="78"/>
-      <c r="AB57" s="78"/>
-      <c r="AC57" s="78"/>
-      <c r="AD57" s="78"/>
-      <c r="AE57" s="78"/>
-      <c r="AF57" s="78"/>
-      <c r="AG57" s="78"/>
-      <c r="AH57" s="78"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="85"/>
+      <c r="M57" s="85"/>
+      <c r="N57" s="85"/>
+      <c r="O57" s="85"/>
+      <c r="P57" s="85"/>
+      <c r="Q57" s="85"/>
+      <c r="R57" s="85"/>
+      <c r="S57" s="85"/>
+      <c r="T57" s="85"/>
+      <c r="U57" s="85"/>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
+      <c r="X57" s="85"/>
+      <c r="Y57" s="85"/>
+      <c r="Z57" s="85"/>
+      <c r="AA57" s="85"/>
+      <c r="AB57" s="85"/>
+      <c r="AC57" s="85"/>
+      <c r="AD57" s="85"/>
+      <c r="AE57" s="85"/>
+      <c r="AF57" s="85"/>
+      <c r="AG57" s="85"/>
+      <c r="AH57" s="85"/>
       <c r="AI57" s="53"/>
       <c r="AJ57" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="AK33:AK34"/>
-    <mergeCell ref="AL33:AL34"/>
-    <mergeCell ref="G35:AA35"/>
-    <mergeCell ref="F30:AL30"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AJ33:AJ34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="X33:X34"/>
-    <mergeCell ref="Y33:Z34"/>
-    <mergeCell ref="AA33:AF34"/>
-    <mergeCell ref="AG33:AG34"/>
-    <mergeCell ref="AH33:AH34"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:W34"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="G57:AH57"/>
+    <mergeCell ref="AJ55:AJ56"/>
+    <mergeCell ref="AI55:AI56"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:AH49"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:W56"/>
+    <mergeCell ref="X55:X56"/>
+    <mergeCell ref="Y55:Z56"/>
+    <mergeCell ref="AA55:AF56"/>
+    <mergeCell ref="AG55:AG56"/>
+    <mergeCell ref="AH55:AH56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="AA19:AF20"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="Y47:Z48"/>
+    <mergeCell ref="AA47:AF48"/>
+    <mergeCell ref="AG47:AG48"/>
+    <mergeCell ref="AH47:AH48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B47:C48"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:W48"/>
+    <mergeCell ref="X47:X48"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:AJ21"/>
+    <mergeCell ref="AI19:AI20"/>
+    <mergeCell ref="AJ19:AJ20"/>
+    <mergeCell ref="AG40:AG41"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:W41"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="G12:W13"/>
+    <mergeCell ref="X12:X13"/>
+    <mergeCell ref="AA12:AF13"/>
+    <mergeCell ref="Y12:Z13"/>
+    <mergeCell ref="AH12:AH13"/>
+    <mergeCell ref="AI12:AI13"/>
+    <mergeCell ref="AJ12:AJ13"/>
+    <mergeCell ref="AK12:AK13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="G19:W20"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="G7:AH7"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="AA5:AF6"/>
+    <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:AL14"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="AL12:AL13"/>
+    <mergeCell ref="AG12:AG13"/>
     <mergeCell ref="A30:A42"/>
     <mergeCell ref="AI26:AI27"/>
     <mergeCell ref="AJ26:AJ27"/>
@@ -5119,79 +5184,23 @@
     <mergeCell ref="Y40:Z41"/>
     <mergeCell ref="AA40:AF41"/>
     <mergeCell ref="G26:W27"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="G19:W20"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="G7:AH7"/>
-    <mergeCell ref="Y5:Z6"/>
-    <mergeCell ref="AA5:AF6"/>
-    <mergeCell ref="AG5:AG6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:AL14"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="AL12:AL13"/>
-    <mergeCell ref="AG12:AG13"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="G12:W13"/>
-    <mergeCell ref="X12:X13"/>
-    <mergeCell ref="AA12:AF13"/>
-    <mergeCell ref="Y12:Z13"/>
-    <mergeCell ref="AH12:AH13"/>
-    <mergeCell ref="AI12:AI13"/>
-    <mergeCell ref="AJ12:AJ13"/>
-    <mergeCell ref="AK12:AK13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Z20"/>
-    <mergeCell ref="AA19:AF20"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="Y47:Z48"/>
-    <mergeCell ref="AA47:AF48"/>
-    <mergeCell ref="AG47:AG48"/>
-    <mergeCell ref="AH47:AH48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B47:C48"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:W48"/>
-    <mergeCell ref="X47:X48"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:AJ21"/>
-    <mergeCell ref="AI19:AI20"/>
-    <mergeCell ref="AJ19:AJ20"/>
-    <mergeCell ref="AG40:AG41"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:W41"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="G57:AH57"/>
-    <mergeCell ref="AJ55:AJ56"/>
-    <mergeCell ref="AI55:AI56"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:AH49"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:W56"/>
-    <mergeCell ref="X55:X56"/>
-    <mergeCell ref="Y55:Z56"/>
-    <mergeCell ref="AA55:AF56"/>
-    <mergeCell ref="AG55:AG56"/>
-    <mergeCell ref="AH55:AH56"/>
-    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="AK33:AK34"/>
+    <mergeCell ref="AL33:AL34"/>
+    <mergeCell ref="G35:AA35"/>
+    <mergeCell ref="F30:AL30"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AJ33:AJ34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="X33:X34"/>
+    <mergeCell ref="Y33:Z34"/>
+    <mergeCell ref="AA33:AF34"/>
+    <mergeCell ref="AG33:AG34"/>
+    <mergeCell ref="AH33:AH34"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G33:W34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5204,7 +5213,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5221,10 +5230,10 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
+      <c r="C1" s="67"/>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
@@ -5239,10 +5248,10 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
@@ -5257,7 +5266,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -5277,7 +5286,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="67"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
@@ -5295,10 +5304,10 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
@@ -5313,10 +5322,10 @@
       <c r="A6" s="1">
         <v>21</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
@@ -5331,10 +5340,10 @@
       <c r="A7" s="1">
         <v>22</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
@@ -5349,10 +5358,10 @@
       <c r="A8" s="1">
         <v>24</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
@@ -5365,10 +5374,10 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
@@ -5401,7 +5410,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5580,7 +5589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E45E86-9F59-034B-9352-899C9353F44D}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -5675,10 +5684,10 @@
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="65"/>
+      <c r="C1" s="67"/>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
@@ -5690,10 +5699,10 @@
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="64">
         <v>6</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="9" t="s">
         <v>43</v>
       </c>
@@ -5705,10 +5714,10 @@
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="64">
         <v>1</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
@@ -5720,10 +5729,10 @@
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
@@ -5735,10 +5744,10 @@
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
@@ -5750,10 +5759,10 @@
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="64">
         <v>1</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
@@ -5765,10 +5774,10 @@
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
@@ -5814,10 +5823,10 @@
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="65"/>
+      <c r="C1" s="67"/>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
@@ -5829,10 +5838,10 @@
       <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="62">
+      <c r="B2" s="64">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
@@ -5844,10 +5853,10 @@
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="64">
         <v>1</v>
       </c>
-      <c r="C3" s="63"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
@@ -5859,10 +5868,10 @@
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="64">
         <v>1</v>
       </c>
-      <c r="C4" s="63"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
@@ -5874,10 +5883,10 @@
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="62">
+      <c r="B5" s="64">
         <v>1</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
@@ -5889,10 +5898,10 @@
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="62">
+      <c r="B6" s="64">
         <v>1</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
@@ -5904,10 +5913,10 @@
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="64">
         <v>1</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
@@ -5935,7 +5944,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6036,8 +6045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20BE13F1-9254-A446-BE44-97996C0C9A5F}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6066,7 +6075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="38" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>31</v>
       </c>
@@ -6079,12 +6088,12 @@
       <c r="D2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>204</v>
+      <c r="E2" s="18" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="68" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -6101,7 +6110,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="1" t="s">
         <v>37</v>
       </c>
@@ -6116,7 +6125,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="1" t="s">
         <v>38</v>
       </c>
@@ -6131,7 +6140,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="1" t="s">
         <v>97</v>
       </c>
@@ -6146,7 +6155,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="68" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -6163,7 +6172,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="24" t="s">
         <v>97</v>
       </c>
@@ -6179,10 +6188,10 @@
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="61" t="s">
         <v>205</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>206</v>
       </c>
       <c r="C9" s="61">
         <v>1</v>
@@ -6191,23 +6200,25 @@
         <v>8</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="38" x14ac:dyDescent="0.2">
       <c r="A10" s="59" t="s">
         <v>203</v>
       </c>
       <c r="B10" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="59">
-        <v>6</v>
-      </c>
-      <c r="D10" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7"/>
+      <c r="C10" s="62">
+        <v>32</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="99" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="59" t="s">
@@ -6248,193 +6259,193 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="71" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="76"/>
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="74"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="74"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
     </row>
     <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="74"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="76"/>
     </row>
     <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="74"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="76"/>
     </row>
     <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="74"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="76"/>
     </row>
     <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="74"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="76"/>
     </row>
     <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="74"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="76"/>
     </row>
     <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="72"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="76"/>
     </row>
     <row r="14" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="72"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
     </row>
     <row r="15" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="72"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="74"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="76"/>
     </row>
     <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="72"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="74"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
     </row>
     <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="75"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="77"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="1">
